--- a/Wedding_Jul_02.xlsx
+++ b/Wedding_Jul_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trietpham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA26E1A-EB12-4D2A-9526-B71EF8BD9B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A4F93-1E56-4378-B85E-091B385E73E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RVC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Trịnh Nguyễn Quyết</t>
   </si>
   <si>
-    <t>Phạm Minh Triết</t>
-  </si>
-  <si>
     <t>Lê Thị Bích Phượng</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Thiện lầy</t>
+  </si>
+  <si>
+    <t>Nghĩa Lê</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -799,10 +799,12 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E19" si="0">IF(D3="No","-","")</f>
-        <v/>
+        <f>IF(D3="No","-","")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -814,7 +816,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E19" si="0">IF(D4="No","-","")</f>
         <v/>
       </c>
     </row>
@@ -914,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="str">
@@ -927,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="str">
@@ -953,7 +955,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="str">
@@ -966,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="str">
@@ -979,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="str">
@@ -992,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="str">
@@ -1005,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="str">
@@ -1037,8 +1039,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{88B668B2-6BCE-4CE3-B91E-0C6FEBD39411}">
-      <formula1>"Yes, No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{433E9837-8534-4F36-B58A-6BF7D8CB5E04}">
+      <formula1>"1, 2, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,7 +1053,7 @@
   <dimension ref="B3:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C4" sqref="C4:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1080,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" ref="E4:E18" si="0">IF(D4="No","-","")</f>
@@ -1095,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1110,10 +1112,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1125,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1140,10 +1142,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1155,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1170,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1185,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1200,10 +1202,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1215,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1230,10 +1232,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1245,10 +1247,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1260,10 +1262,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1275,10 +1277,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1290,10 +1292,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1323,23 +1325,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",E18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$D$3="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1356,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F7D1BA-B223-47F7-A042-BE1079905320}">
   <dimension ref="B4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1386,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="str">
@@ -1399,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="str">
@@ -1412,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="str">
@@ -1425,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="str">
@@ -1438,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="str">
@@ -1451,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="str">
@@ -1464,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="str">
@@ -1477,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="str">
@@ -1490,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="str">
@@ -1503,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="str">
@@ -1516,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="str">
@@ -1529,7 +1531,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="str">
@@ -1542,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="str">
@@ -1555,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="str">
@@ -1568,7 +1570,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="str">
@@ -1581,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="str">
@@ -1594,7 +1596,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="str">
@@ -1607,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1617,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1627,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1640,27 +1642,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5:E21">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",E5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$D$3="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D21">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D21">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D21" xr:uid="{9053358E-CB56-4CEC-8F03-94CFC9CA6BBE}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>

--- a/Wedding_Jul_02.xlsx
+++ b/Wedding_Jul_02.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trietpham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55A4F93-1E56-4378-B85E-091B385E73E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9894F736-DC41-46EF-A8FE-C55004220FD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RVC" sheetId="1" r:id="rId1"/>
     <sheet name="12L" sheetId="2" r:id="rId2"/>
-    <sheet name="Linh Tinh" sheetId="3" r:id="rId3"/>
+    <sheet name="friend" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -146,15 +146,6 @@
     <t>Tấn</t>
   </si>
   <si>
-    <t>Thảo Nhỏ</t>
-  </si>
-  <si>
-    <t>Thảo Bự</t>
-  </si>
-  <si>
-    <t>Em Thảo bự</t>
-  </si>
-  <si>
     <t>Thư Trương</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>Duyen Nguyen</t>
   </si>
   <si>
-    <t>Thanh</t>
-  </si>
-  <si>
     <t>Lê Quý</t>
   </si>
   <si>
@@ -197,23 +185,110 @@
     <t>Phạm Trúc</t>
   </si>
   <si>
-    <t>Bích</t>
-  </si>
-  <si>
-    <t>Sang</t>
-  </si>
-  <si>
     <t>Thiện lầy</t>
   </si>
   <si>
     <t>Nghĩa Lê</t>
+  </si>
+  <si>
+    <t>Long Mai</t>
+  </si>
+  <si>
+    <t>Tuyen</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tuan Huynh</t>
+  </si>
+  <si>
+    <t>Son Pham</t>
+  </si>
+  <si>
+    <t>0394764011</t>
+  </si>
+  <si>
+    <t>Bích Vũ</t>
+  </si>
+  <si>
+    <t>Sang Sang</t>
+  </si>
+  <si>
+    <t>Thảo Lê</t>
+  </si>
+  <si>
+    <t>Trúc Hồ</t>
+  </si>
+  <si>
+    <t>Tuyền Nguyễn</t>
+  </si>
+  <si>
+    <t>Thanh Bùi</t>
+  </si>
+  <si>
+    <t>Dũng Trần</t>
+  </si>
+  <si>
+    <t>Hoàng Phạm</t>
+  </si>
+  <si>
+    <t>0937823605</t>
+  </si>
+  <si>
+    <t>0975582492</t>
+  </si>
+  <si>
+    <t>0362078147</t>
+  </si>
+  <si>
+    <t>0365451877</t>
+  </si>
+  <si>
+    <t>0933292910</t>
+  </si>
+  <si>
+    <t>0784652116</t>
+  </si>
+  <si>
+    <t>0355539155</t>
+  </si>
+  <si>
+    <t>0969280072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhi Huỳnh+ </t>
+  </si>
+  <si>
+    <t>03633774496</t>
+  </si>
+  <si>
+    <t>Quang Tuấn</t>
+  </si>
+  <si>
+    <t>0985184746</t>
+  </si>
+  <si>
+    <t>0362 061 663</t>
+  </si>
+  <si>
+    <t>0848011101</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Thảo Huỳnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +310,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +371,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -291,11 +413,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -304,11 +435,85 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -765,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,271 +983,348 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F2" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>IF(D3="No","-","")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="str">
-        <f t="shared" ref="E3:E19" si="0">IF(D4="No","-","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>979485405</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>869131764</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>976621758</v>
+      </c>
+      <c r="F7" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="D10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>367229958</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>886106693</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="D17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E3:E19">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",E3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
-      <formula>$D$3="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D19">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D19">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{433E9837-8534-4F36-B58A-6BF7D8CB5E04}">
-      <formula1>"1, 2, No"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1050,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E1151B-3860-49F1-89ED-1CF0BC4E8D17}">
-  <dimension ref="B3:E18"/>
+  <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,9 +1343,10 @@
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1359,11 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1091,8 +1377,11 @@
         <f t="shared" ref="E4:E18" si="0">IF(D4="No","-","")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1106,8 +1395,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1121,8 +1413,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1136,8 +1431,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1151,8 +1449,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1166,8 +1467,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1181,8 +1485,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1196,8 +1503,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1211,8 +1521,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1226,8 +1539,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1241,8 +1557,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1256,8 +1575,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1271,8 +1593,11 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1286,13 +1611,16 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1300,48 +1628,51 @@
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E17">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",E4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>$D$3="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D17">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D17">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",E18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>$D$3="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1356,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F7D1BA-B223-47F7-A042-BE1079905320}">
-  <dimension ref="B4:E25"/>
+  <dimension ref="B4:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,9 +1698,13 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1382,291 +1717,646 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" ref="E5:E21" si="0">IF(D5="No","-","")</f>
+        <f t="shared" ref="E5:E23" si="0">IF(D5="No","-","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="12">
+        <v>500</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="12">
+        <v>500</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="12">
+        <v>500</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="F11" s="12">
+        <v>500</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12">
+        <v>500</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>700</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="F14" s="1">
+        <v>500</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="F15" s="1">
+        <v>500</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="F16" s="1">
+        <v>500</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>-</v>
+      </c>
+      <c r="F17" s="1">
+        <v>500</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F18" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>15</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>17</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="14"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E21">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0">
+  <conditionalFormatting sqref="E5:E24">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",E5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>$D$3="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D28 D30">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D28 D30">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N17">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",N6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>$D$3="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M13">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M13">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M17">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M17">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",N5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$D$3="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D21">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D21">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D21" xr:uid="{9053358E-CB56-4CEC-8F03-94CFC9CA6BBE}">
-      <formula1>"Yes, No"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D28 M5:M17" xr:uid="{449D5096-E38D-4847-BC8C-DC9AF35734FF}">
+      <formula1>"1, 2, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>